--- a/biology/Zoologie/Louis_Companyo/Louis_Companyo.xlsx
+++ b/biology/Zoologie/Louis_Companyo/Louis_Companyo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Baudile-Jean-Louis Companyo, né à Céret le 16 décembre 1781 et mort à Perpignan le 10 septembre 1871, est un naturaliste français. Médecin de formation, il est directeur du Muséum d'histoire naturelle de Perpignan et publie, à l'âge de 80 ans, une Histoire naturelle du département des Pyrénées-Orientales en trois volumes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baudile-Jean-Louis Companyo, né à Céret le 16 décembre 1781 et mort à Perpignan le 10 septembre 1871, est un naturaliste français. Médecin de formation, il est directeur du Muséum d'histoire naturelle de Perpignan et publie, à l'âge de 80 ans, une Histoire naturelle du département des Pyrénées-Orientales en trois volumes.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père, Louis Companyo, est un médecin, membre correspondant de l'Académie de médecine de Paris et sa mère Claire Lauquine est native d'Arles. Il devient rapidement orphelin mais suit les traces paternelles en étudiant à la faculté de Montpellier. Il doit les arrêter pour faire son service militaire au cours duquel il devient chirurgien sous-aide major dans le quartier général du prince Murat, en Espagne en 1807. À cette occasion il rencontre et se lie d'amitié avec l'entomologiste comte Déjean et  le célèbre baron Larrey. Malgré la guerre, ils font de nombreuses expéditions à la recherche d'animaux inconnus.
 Rentré en France après la guerre d'Espagne, il devient chef de service à l'hôpital militaire de Prades. Pour des raisons de santé, il doit abandonner sa carrière militaire et il termina ses études par une thèse de doctorat, à Montpellier, le 17 juin 1812.
@@ -548,7 +562,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>B. J. Louis Companyo-Lanquine, Essai sur les hémorragies utérines qui surviennent vers le dernier temps de la grossesse pendant et après l'accouchement, Montpellier, 17 juin 1812, In-4 ° (BNF 36868064)
 L. Companyo, Mémoire descriptif et ostéographie de la baleine échouée... près de St-Cyprien... Pyrénées-Orientales, le 27 novembre 1828, Perpignan, J. Alzine, 1830, 71 p. (BNF 30262525)
@@ -603,9 +619,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> chevalier de l'ordre de François-Joseph en 1870, Autriche-Hongrie[2].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> chevalier de l'ordre de François-Joseph en 1870, Autriche-Hongrie.</t>
         </is>
       </c>
     </row>
